--- a/p3-results.xlsx
+++ b/p3-results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>EXERCISE 1</t>
   </si>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>easygaussian1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10
+</t>
   </si>
   <si>
     <t>easygaussian2</t>
@@ -158,7 +162,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -190,10 +194,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,8 +211,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,8 +220,17 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -530,23 +546,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="11" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="11" width="8.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -556,26 +572,26 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -587,723 +603,1119 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>22.429426987332924</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>22.384620183170743</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>22.5419663267437</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <f>MEDIAN(B3:D3)</f>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <f>MIN(B3:D3)</f>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="9">
+        <v>22.384620183170743</v>
+      </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="J3" s="10">
+        <v>10</v>
+      </c>
+      <c r="K3" s="10">
+        <v>10</v>
+      </c>
+      <c r="L3" s="10">
+        <v>10</v>
+      </c>
+      <c r="M3" s="10">
+        <v>10</v>
+      </c>
+      <c r="N3" s="10">
+        <v>10</v>
+      </c>
+      <c r="O3" s="10">
+        <v>10</v>
+      </c>
+      <c r="P3" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>9.797249414906348</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>9.797249414906348</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>9.797249414906348</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <f>MEDIAN(B4:D4)</f>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <f>MIN(B4:D4)</f>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="9">
+        <v>9.797249414906348</v>
+      </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="J4" s="10">
+        <v>10</v>
+      </c>
+      <c r="K4" s="10">
+        <v>10</v>
+      </c>
+      <c r="L4" s="10">
+        <v>10</v>
+      </c>
+      <c r="M4" s="10">
+        <v>10</v>
+      </c>
+      <c r="N4" s="10">
+        <v>10</v>
+      </c>
+      <c r="O4" s="10">
+        <v>10</v>
+      </c>
+      <c r="P4" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>1.1214086500113902</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>1.1214086500113902</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>1.1214086500113902</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <f>MEDIAN(B5:D5)</f>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <f>MIN(B5:D5)</f>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="9">
+        <v>1.1214086500113902</v>
+      </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="J5" s="10">
+        <v>10</v>
+      </c>
+      <c r="K5" s="10">
+        <v>10</v>
+      </c>
+      <c r="L5" s="10">
+        <v>10</v>
+      </c>
+      <c r="M5" s="10">
+        <v>10</v>
+      </c>
+      <c r="N5" s="10">
+        <v>10</v>
+      </c>
+      <c r="O5" s="10">
+        <v>10</v>
+      </c>
+      <c r="P5" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>0.5061345934241029</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>0.5061345934241029</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>0.5061345934241029</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <f>MEDIAN(B6:D6)</f>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <f>MIN(B6:D6)</f>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="9">
+        <v>0.5061345934241029</v>
+      </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="J6" s="10">
+        <v>10</v>
+      </c>
+      <c r="K6" s="10">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="10">
+        <v>10</v>
+      </c>
+      <c r="N6" s="10">
+        <v>10</v>
+      </c>
+      <c r="O6" s="10">
+        <v>10</v>
+      </c>
+      <c r="P6" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.5597168289064914</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.5597168289064914</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.5597168289064914</v>
+      </c>
+      <c r="E7" s="7">
+        <f>MEDIAN(B7:D7)</f>
+      </c>
+      <c r="F7" s="8">
+        <f>MIN(B7:D7)</f>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="9">
+        <v>0.5597168289064914</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="10">
+        <v>10</v>
+      </c>
+      <c r="K7" s="10">
+        <v>10</v>
+      </c>
+      <c r="L7" s="10">
+        <v>10</v>
+      </c>
+      <c r="M7" s="10">
+        <v>10</v>
+      </c>
+      <c r="N7" s="10">
+        <v>10</v>
+      </c>
+      <c r="O7" s="10">
+        <v>10</v>
+      </c>
+      <c r="P7" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.510267539693795</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.510267539693795</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.510267539693795</v>
+      </c>
+      <c r="E8" s="7">
+        <f>MEDIAN(B8:D8)</f>
+      </c>
+      <c r="F8" s="8">
+        <f>MIN(B8:D8)</f>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="9">
+        <v>0.510267539693795</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="10">
+        <v>10</v>
+      </c>
+      <c r="K8" s="10">
+        <v>10</v>
+      </c>
+      <c r="L8" s="10">
+        <v>10</v>
+      </c>
+      <c r="M8" s="10">
+        <v>10</v>
+      </c>
+      <c r="N8" s="10">
+        <v>10</v>
+      </c>
+      <c r="O8" s="10">
+        <v>10</v>
+      </c>
+      <c r="P8" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.4700620648608954</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.4700620648608954</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.4700620648608954</v>
+      </c>
+      <c r="E9" s="7">
+        <f>MEDIAN(B9:D9)</f>
+      </c>
+      <c r="F9" s="8">
+        <f>MIN(B9:D9)</f>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="9">
+        <v>0.4700620648608954</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="10">
+        <v>10</v>
+      </c>
+      <c r="K9" s="10">
+        <v>10</v>
+      </c>
+      <c r="L9" s="10">
+        <v>10</v>
+      </c>
+      <c r="M9" s="10">
+        <v>10</v>
+      </c>
+      <c r="N9" s="10">
+        <v>10</v>
+      </c>
+      <c r="O9" s="10">
+        <v>10</v>
+      </c>
+      <c r="P9" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.5105718824222842</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2.246031441433002</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2.2461398709736846</v>
+      </c>
+      <c r="E10" s="7">
+        <f>MEDIAN(B10:D10)</f>
+      </c>
+      <c r="F10" s="8">
+        <f>MIN(B10:D10)</f>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="9">
+        <v>0.5105718824222842</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="10">
+        <v>10</v>
+      </c>
+      <c r="K10" s="10">
+        <v>10</v>
+      </c>
+      <c r="L10" s="10">
+        <v>10</v>
+      </c>
+      <c r="M10" s="10">
+        <v>10</v>
+      </c>
+      <c r="N10" s="10">
+        <v>10</v>
+      </c>
+      <c r="O10" s="10">
+        <v>10</v>
+      </c>
+      <c r="P10" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1.4404649705377925</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.463040616666479</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1.474246548023877</v>
+      </c>
+      <c r="E11" s="7">
+        <f>MEDIAN(B11:D11)</f>
+      </c>
+      <c r="F11" s="8">
+        <f>MIN(B11:D11)</f>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="9">
+        <v>0.4630406166664791</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="10">
+        <v>10</v>
+      </c>
+      <c r="K11" s="10">
+        <v>10</v>
+      </c>
+      <c r="L11" s="10">
+        <v>10</v>
+      </c>
+      <c r="M11" s="10">
+        <v>10</v>
+      </c>
+      <c r="N11" s="10">
+        <v>10</v>
+      </c>
+      <c r="O11" s="10">
+        <v>10</v>
+      </c>
+      <c r="P11" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.453674848261156</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.1396675923109683</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.45367484826115645</v>
+      </c>
+      <c r="E12" s="7">
+        <f>MEDIAN(B12:D12)</f>
+      </c>
+      <c r="F12" s="8">
+        <f>MIN(B12:D12)</f>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="9">
+        <v>0.45367484826115645</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="10">
+        <v>10</v>
+      </c>
+      <c r="K12" s="10">
+        <v>10</v>
+      </c>
+      <c r="L12" s="10">
+        <v>10</v>
+      </c>
+      <c r="M12" s="10">
+        <v>10</v>
+      </c>
+      <c r="N12" s="10">
+        <v>10</v>
+      </c>
+      <c r="O12" s="10">
+        <v>10</v>
+      </c>
+      <c r="P12" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.35259721941288275</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.7991439623201811</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.35259721941288275</v>
+      </c>
+      <c r="E13" s="7">
+        <f>MEDIAN(B13:D13)</f>
+      </c>
+      <c r="F13" s="8">
+        <f>MIN(B13:D13)</f>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="9">
+        <v>0.35259721941288275</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="10">
+        <v>10</v>
+      </c>
+      <c r="K13" s="10">
+        <v>10</v>
+      </c>
+      <c r="L13" s="10">
+        <v>10</v>
+      </c>
+      <c r="M13" s="10">
+        <v>10</v>
+      </c>
+      <c r="N13" s="10">
+        <v>10</v>
+      </c>
+      <c r="O13" s="10">
+        <v>10</v>
+      </c>
+      <c r="P13" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.4133127591558089</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.4133127591558089</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.8456322264353714</v>
+      </c>
+      <c r="E14" s="7">
+        <f>MEDIAN(B14:D14)</f>
+      </c>
+      <c r="F14" s="8">
+        <f>MIN(B14:D14)</f>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="9">
+        <v>0.4133127591558089</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.5597168289064914</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.5597168289064914</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.5597168289064914</v>
-      </c>
-      <c r="E7" s="6">
-        <f>MEDIAN(B7:D7)</f>
-      </c>
-      <c r="F7" s="7">
-        <f>MIN(B7:D7)</f>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0.510267539693795</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.510267539693795</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.510267539693795</v>
-      </c>
-      <c r="E8" s="6">
-        <f>MEDIAN(B8:D8)</f>
-      </c>
-      <c r="F8" s="7">
-        <f>MIN(B8:D8)</f>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0.4700620648608954</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.4700620648608954</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.4700620648608954</v>
-      </c>
-      <c r="E9" s="6">
-        <f>MEDIAN(B9:D9)</f>
-      </c>
-      <c r="F9" s="7">
-        <f>MIN(B9:D9)</f>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.5105718824222842</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2.246031441433002</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2.2461398709736846</v>
-      </c>
-      <c r="E10" s="6">
-        <f>MEDIAN(B10:D10)</f>
-      </c>
-      <c r="F10" s="7">
-        <f>MIN(B10:D10)</f>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1.4404649705377925</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.4630406166664791</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1.474246548023877</v>
-      </c>
-      <c r="E11" s="6">
-        <f>MEDIAN(B11:D11)</f>
-      </c>
-      <c r="F11" s="7">
-        <f>MIN(B11:D11)</f>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0.453674848261156</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1.1396675923109683</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.45367484826115645</v>
-      </c>
-      <c r="E12" s="6">
-        <f>MEDIAN(B12:D12)</f>
-      </c>
-      <c r="F12" s="7">
-        <f>MIN(B12:D12)</f>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.35259721941288275</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.7991439623201811</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.35259721941288275</v>
-      </c>
-      <c r="E13" s="6">
-        <f>MEDIAN(B13:D13)</f>
-      </c>
-      <c r="F13" s="7">
-        <f>MIN(B13:D13)</f>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.4133127591558089</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.4133127591558089</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.8456322264353714</v>
-      </c>
-      <c r="E14" s="6">
-        <f>MEDIAN(B14:D14)</f>
-      </c>
-      <c r="F14" s="7">
-        <f>MIN(B14:D14)</f>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="K14" s="10">
+        <v>10</v>
+      </c>
+      <c r="L14" s="10">
+        <v>10</v>
+      </c>
+      <c r="M14" s="10">
+        <v>10</v>
+      </c>
+      <c r="N14" s="10">
+        <v>10</v>
+      </c>
+      <c r="O14" s="10">
+        <v>10</v>
+      </c>
+      <c r="P14" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="5">
+        <v>31</v>
+      </c>
+      <c r="B15" s="6">
         <v>0.4610200963398589</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>0.4610200963398589</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>0.4610200963398589</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="7">
         <f>MEDIAN(B15:D15)</f>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <f>MIN(B15:D15)</f>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="9">
+        <v>0.4610200963398589</v>
+      </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="J15" s="10">
+        <v>10</v>
+      </c>
+      <c r="K15" s="10">
+        <v>10</v>
+      </c>
+      <c r="L15" s="10">
+        <v>10</v>
+      </c>
+      <c r="M15" s="10">
+        <v>10</v>
+      </c>
+      <c r="N15" s="10">
+        <v>10</v>
+      </c>
+      <c r="O15" s="10">
+        <v>10</v>
+      </c>
+      <c r="P15" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="5">
+        <v>32</v>
+      </c>
+      <c r="B16" s="6">
         <v>0.5421702726403995</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>0.5421702726403995</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>0.5421702726403995</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="7">
         <f>MEDIAN(B16:D16)</f>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <f>MIN(B16:D16)</f>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="9">
+        <v>0.5421702726403995</v>
+      </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="J16" s="10">
+        <v>10</v>
+      </c>
+      <c r="K16" s="10">
+        <v>10</v>
+      </c>
+      <c r="L16" s="10">
+        <v>10</v>
+      </c>
+      <c r="M16" s="10">
+        <v>10</v>
+      </c>
+      <c r="N16" s="10">
+        <v>10</v>
+      </c>
+      <c r="O16" s="10">
+        <v>10</v>
+      </c>
+      <c r="P16" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="5">
+        <v>33</v>
+      </c>
+      <c r="B17" s="6">
         <v>0.42010081663958176</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>0.42010081663958176</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>0.42010081663958176</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="7">
         <f>MEDIAN(B17:D17)</f>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <f>MIN(B17:D17)</f>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="9">
+        <v>0.42010081663958176</v>
+      </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="J17" s="10">
+        <v>10</v>
+      </c>
+      <c r="K17" s="10">
+        <v>10</v>
+      </c>
+      <c r="L17" s="10">
+        <v>10</v>
+      </c>
+      <c r="M17" s="10">
+        <v>10</v>
+      </c>
+      <c r="N17" s="10">
+        <v>10</v>
+      </c>
+      <c r="O17" s="10">
+        <v>10</v>
+      </c>
+      <c r="P17" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="5">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6">
         <v>0.3900573203371939</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="6">
         <v>0.39274590516705565</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <v>0.3900573203371939</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="7">
         <f>MEDIAN(B18:D18)</f>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <f>MIN(B18:D18)</f>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="9">
+        <v>0.3900573203371939</v>
+      </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="J18" s="10">
+        <v>10</v>
+      </c>
+      <c r="K18" s="10">
+        <v>10</v>
+      </c>
+      <c r="L18" s="10">
+        <v>10</v>
+      </c>
+      <c r="M18" s="10">
+        <v>10</v>
+      </c>
+      <c r="N18" s="10">
+        <v>10</v>
+      </c>
+      <c r="O18" s="10">
+        <v>10</v>
+      </c>
+      <c r="P18" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="5">
+        <v>35</v>
+      </c>
+      <c r="B19" s="6">
         <v>0.4303375102835159</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="6">
         <v>0.4303375102835159</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
         <v>0.4303375102835159</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="7">
         <f>MEDIAN(B19:D19)</f>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <f>MIN(B19:D19)</f>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="9">
+        <v>0.4303375102835159</v>
+      </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="J19" s="10">
+        <v>10</v>
+      </c>
+      <c r="K19" s="10">
+        <v>10</v>
+      </c>
+      <c r="L19" s="10">
+        <v>10</v>
+      </c>
+      <c r="M19" s="10">
+        <v>10</v>
+      </c>
+      <c r="N19" s="10">
+        <v>10</v>
+      </c>
+      <c r="O19" s="10">
+        <v>10</v>
+      </c>
+      <c r="P19" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="5">
+        <v>36</v>
+      </c>
+      <c r="B20" s="6">
         <v>0.5533686292357611</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="6">
         <v>0.4347216401598461</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="6">
         <v>0.43388521203980657</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="7">
         <f>MEDIAN(B20:D20)</f>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <f>MIN(B20:D20)</f>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="9">
+        <v>0.4347216401598461</v>
+      </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="J20" s="10">
+        <v>10</v>
+      </c>
+      <c r="K20" s="10">
+        <v>10</v>
+      </c>
+      <c r="L20" s="10">
+        <v>10</v>
+      </c>
+      <c r="M20" s="10">
+        <v>10</v>
+      </c>
+      <c r="N20" s="10">
+        <v>10</v>
+      </c>
+      <c r="O20" s="10">
+        <v>10</v>
+      </c>
+      <c r="P20" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="5">
+        <v>37</v>
+      </c>
+      <c r="B21" s="6">
         <v>0.3744073165653397</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="6">
         <v>0.37683239715886396</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="6">
         <v>0.4120513801653002</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="7">
         <f>MEDIAN(B21:D21)</f>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <f>MIN(B21:D21)</f>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="9">
+        <v>0.3862283141788063</v>
+      </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="J21" s="10">
+        <v>10</v>
+      </c>
+      <c r="K21" s="10">
+        <v>10</v>
+      </c>
+      <c r="L21" s="10">
+        <v>10</v>
+      </c>
+      <c r="M21" s="10">
+        <v>10</v>
+      </c>
+      <c r="N21" s="10">
+        <v>10</v>
+      </c>
+      <c r="O21" s="10">
+        <v>10</v>
+      </c>
+      <c r="P21" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="5">
+        <v>38</v>
+      </c>
+      <c r="B22" s="6">
         <v>0.3543121300353007</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="6">
         <v>0.35629646612956356</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="6">
         <v>0.3443694557922938</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="7">
         <f>MEDIAN(B22:D22)</f>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="8">
         <f>MIN(B22:D22)</f>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="9">
+        <v>0.3549081541481357</v>
+      </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="J22" s="10">
+        <v>10</v>
+      </c>
+      <c r="K22" s="10">
+        <v>10</v>
+      </c>
+      <c r="L22" s="10">
+        <v>10</v>
+      </c>
+      <c r="M22" s="10">
+        <v>10</v>
+      </c>
+      <c r="N22" s="10">
+        <v>10</v>
+      </c>
+      <c r="O22" s="10">
+        <v>10</v>
+      </c>
+      <c r="P22" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="5">
+        <v>39</v>
+      </c>
+      <c r="B23" s="6">
         <v>0.35797456706330455</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="6">
         <v>0.362409767549518</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="6">
         <v>0.3470637613437271</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="7">
         <f>MEDIAN(B23:D23)</f>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="8">
         <f>MIN(B23:D23)</f>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="9">
+        <v>0.33197767847921994</v>
+      </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="J23" s="10">
+        <v>10</v>
+      </c>
+      <c r="K23" s="10">
+        <v>10</v>
+      </c>
+      <c r="L23" s="10">
+        <v>10</v>
+      </c>
+      <c r="M23" s="10">
+        <v>10</v>
+      </c>
+      <c r="N23" s="10">
+        <v>10</v>
+      </c>
+      <c r="O23" s="10">
+        <v>10</v>
+      </c>
+      <c r="P23" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="5">
+        <v>40</v>
+      </c>
+      <c r="B24" s="6">
         <v>1.2583132431618382</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="6">
         <v>1.2583132431618382</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="6">
         <v>1.2583132431618382</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="7">
         <f>MEDIAN(B24:D24)</f>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="8">
         <f>MIN(B24:D24)</f>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="9">
+        <v>1.2583132431618382</v>
+      </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="J24" s="10">
+        <v>10</v>
+      </c>
+      <c r="K24" s="10">
+        <v>10</v>
+      </c>
+      <c r="L24" s="10">
+        <v>10</v>
+      </c>
+      <c r="M24" s="10">
+        <v>10</v>
+      </c>
+      <c r="N24" s="10">
+        <v>10</v>
+      </c>
+      <c r="O24" s="10">
+        <v>10</v>
+      </c>
+      <c r="P24" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
